--- a/Bases_de_datos/America_Latina_crecimiento.xlsx
+++ b/Bases_de_datos/America_Latina_crecimiento.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2b9dc00d60f03380/Documentos/HP 2019/SEYA/CURSO_R/Reto_30_Graficos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2b9dc00d60f03380/Documentos/HP 2019/DAVID_ECHEVERRIA/GITHUB/Reto_30_dias_de_graficos_R/Bases_de_datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="2" documentId="8_{67A41A08-4F30-451A-A66F-A52A895BDFFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0F44511C-A667-4903-A9F0-61467037A3FD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{E3BCBB65-C578-45F9-A520-8A119BFE2E6D}"/>
+    <workbookView xWindow="12045" yWindow="5070" windowWidth="7500" windowHeight="6000" xr2:uid="{E3BCBB65-C578-45F9-A520-8A119BFE2E6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
